--- a/full_anno/all_anno/MICROBIOLOGYEVENTS_anno.xlsx
+++ b/full_anno/all_anno/MICROBIOLOGYEVENTS_anno.xlsx
@@ -4,19 +4,21 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="CPA-Short" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="CPA-Long" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="tk76+xOLXbLYjGOlvtdJuxksTAfb89C0HXR0JUySYK8="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="adUVnWYlWvlZYj3C8B2wlAdYiSC3+AGO+1ndHNcbcpc="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="66">
   <si>
     <t>column</t>
   </si>
@@ -82,18 +84,17 @@
     <t>https://biomedit.ch/rdf/sphn-schema/sphn#AdministrativeCase</t>
   </si>
   <si>
-    <t>https://biomedit.ch/rdf/sphn-schema/sphn#LabTestEvent</t>
-  </si>
-  <si>
     <t>https://biomedit.ch/rdf/sphn-schema/sphn#Sample</t>
+  </si>
+  <si>
+    <t>https://biomedit.ch/rdf/sphn-schema/sphn#MicroorganismIdentificationLabTestEvent</t>
   </si>
   <si>
     <t xml:space="preserve">https://biomedit.ch/rdf/sphn-schema/sphn#MicroorganismIdentificationLabTestEvent
 </t>
   </si>
   <si>
-    <t xml:space="preserve">https://biomedit.ch/rdf/sphn-schema/sphn#Isolate
-</t>
+    <t>https://biomedit.ch/rdf/sphn-schema/sphn#MicrobiologyBiomoleculePresenceResult</t>
   </si>
   <si>
     <t xml:space="preserve">https://biomedit.ch/rdf/sphn-schema/sphn#MicrobiologyMicroscopyResult
@@ -106,25 +107,10 @@
     <t>https://biomedit.ch/rdf/sphn-schema/sphn#hasIdentifier</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF1155CC"/>
-        <u/>
-      </rPr>
-      <t>https://biomedit.ch/rdf/sphn-schema/sphn#hasDateTime</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">https://biomedit.ch/rdf/sphn-schema/sphn#hasDateTime
+    <t>https://biomedit.ch/rdf/sphn-schema/sphn#hasDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://biomedit.ch/rdf/sphn-schema/sphn#hasTime
 </t>
   </si>
   <si>
@@ -158,15 +144,9 @@
     <t>CEA</t>
   </si>
   <si>
-    <t>https://www.w3.org/2001/XMLSchema#string</t>
-  </si>
-  <si>
     <t>2165-12-19 00:00:00</t>
   </si>
   <si>
-    <t>https://www.w3.org/2001/XMLSchema#dateTime</t>
-  </si>
-  <si>
     <t>2165-12-19 10:50:00</t>
   </si>
   <si>
@@ -182,9 +162,15 @@
     <t>2165-12-19 12:40:00</t>
   </si>
   <si>
+    <t>Table</t>
+  </si>
+  <si>
     <t>CPA</t>
   </si>
   <si>
+    <t>MICROBIOLOGYEVENTS</t>
+  </si>
+  <si>
     <t>source</t>
   </si>
   <si>
@@ -192,6 +178,9 @@
   </si>
   <si>
     <t>label</t>
+  </si>
+  <si>
+    <t>Flag</t>
   </si>
   <si>
     <t xml:space="preserve">https://biomedit.ch/rdf/sphn-schema/sphn#hasSubjectPseudoIdentifier
@@ -202,43 +191,48 @@
 </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF1155CC"/>
-        <u/>
-      </rPr>
-      <t>https://biomedit.ch/rdf/sphn-schema/sphn#hasDateTime</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve">
+    <t xml:space="preserve">https://biomedit.ch/rdf/sphn-schema/sphn#hasSample
 </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF1155CC"/>
-        <u/>
-      </rPr>
-      <t>https://biomedit.ch/rdf/sphn-schema/sphn#hasDateTime</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve">
+  </si>
+  <si>
+    <t xml:space="preserve">https://biomedit.ch/rdf/sphn-schema/sphn#hasCollectionDateTime
 </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">https://biomedit.ch/rdf/sphn-schema/sphn#hasSample
+  </si>
+  <si>
+    <t>https://biomedit.ch/rdf/sphn-schema/sphn#hasDescription</t>
+  </si>
+  <si>
+    <t>https://biomedit.ch/rdf/sphn-schema/sphn#hasComparato</t>
+  </si>
+  <si>
+    <t>https://biomedit.ch/rdf/sphn-schema/sphn#hasValu</t>
+  </si>
+  <si>
+    <t>https://biomedit.ch/rdf/sphn-schema/sphn#hasStringValue</t>
+  </si>
+  <si>
+    <t>https://biomedit.ch/rdf/sphn-schema/sphn#Quantity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://biomedit.ch/rdf/sphn-schema/sphn#hasQuantity
+</t>
+  </si>
+  <si>
+    <t>https://biomedit.ch/rdf/sphn-schema/sphn#hasValue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://biomedit.ch/rdf/sphn-schema/sphn#MicroorganismIdentificationLabTest
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://biomedit.ch/rdf/sphn-schema/sphn#hasLabTest
+</t>
+  </si>
+  <si>
+    <t>https://biomedit.ch/rdf/sphn-schema/sphn#MicroorganismIdentificationResult</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://biomedit.ch/rdf/sphn-schema/sphn#hasResult
 </t>
   </si>
 </sst>
@@ -246,7 +240,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -299,6 +293,10 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font>
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -310,24 +308,14 @@
       <name val="Arial"/>
     </font>
     <font>
-      <u/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <b/>
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="&quot;aptos narrow&quot;"/>
     </font>
     <font>
-      <u/>
-      <color rgb="FF0000FF"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11.0"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -337,17 +325,28 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <color theme="1"/>
-      <name val="Arial"/>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <u/>
       <color rgb="FF0000FF"/>
     </font>
     <font>
+      <b/>
       <u/>
-      <color theme="1"/>
+      <sz val="11.0"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -404,7 +403,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="34">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -438,13 +437,13 @@
     </xf>
     <xf borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -452,38 +451,56 @@
     <xf borderId="1" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf borderId="3" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf borderId="1" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -494,6 +511,14 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -703,11 +728,14 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="29.43"/>
     <col customWidth="1" min="2" max="2" width="71.57"/>
-    <col customWidth="1" min="3" max="3" width="40.57"/>
+    <col customWidth="1" min="3" max="3" width="62.71"/>
     <col customWidth="1" min="4" max="4" width="64.29"/>
     <col customWidth="1" min="5" max="5" width="40.57"/>
     <col customWidth="1" min="6" max="7" width="58.0"/>
-    <col customWidth="1" min="8" max="11" width="50.71"/>
+    <col customWidth="1" min="8" max="8" width="71.57"/>
+    <col customWidth="1" min="9" max="9" width="50.71"/>
+    <col customWidth="1" min="10" max="10" width="71.57"/>
+    <col customWidth="1" min="11" max="11" width="50.71"/>
     <col customWidth="1" min="12" max="13" width="49.86"/>
     <col customWidth="1" min="14" max="14" width="47.0"/>
     <col customWidth="1" min="15" max="15" width="109.29"/>
@@ -715,7 +743,7 @@
     <col customWidth="1" min="17" max="17" width="10.57"/>
     <col customWidth="1" min="18" max="18" width="74.71"/>
     <col customWidth="1" min="19" max="19" width="8.71"/>
-    <col customWidth="1" min="20" max="20" width="59.71"/>
+    <col customWidth="1" min="20" max="20" width="73.71"/>
     <col customWidth="1" min="21" max="21" width="8.71"/>
     <col customWidth="1" min="22" max="23" width="10.0"/>
     <col customWidth="1" min="24" max="25" width="9.29"/>
@@ -814,27 +842,27 @@
         <v>20</v>
       </c>
       <c r="G2" s="8"/>
-      <c r="H2" s="7" t="s">
-        <v>21</v>
+      <c r="H2" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="I2" s="8"/>
-      <c r="J2" s="7" t="s">
-        <v>21</v>
+      <c r="J2" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="K2" s="8"/>
       <c r="L2" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M2" s="9"/>
       <c r="N2" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O2" s="5"/>
       <c r="P2" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q2" s="11"/>
-      <c r="R2" s="10" t="s">
+      <c r="R2" s="12" t="s">
         <v>23</v>
       </c>
       <c r="S2" s="11"/>
@@ -846,28 +874,28 @@
       <c r="W2" s="11"/>
       <c r="X2" s="11"/>
       <c r="Y2" s="11"/>
-      <c r="Z2" s="10" t="s">
+      <c r="Z2" s="12" t="s">
         <v>25</v>
       </c>
       <c r="AA2" s="11"/>
       <c r="AB2" s="11"/>
       <c r="AC2" s="11"/>
-      <c r="AD2" s="10" t="s">
+      <c r="AD2" s="12" t="s">
         <v>25</v>
       </c>
       <c r="AE2" s="11"/>
-      <c r="AF2" s="10" t="s">
+      <c r="AF2" s="12" t="s">
         <v>25</v>
       </c>
       <c r="AG2" s="11"/>
     </row>
     <row r="3">
-      <c r="A3" s="12"/>
-      <c r="B3" s="13" t="s">
+      <c r="A3" s="13"/>
+      <c r="B3" s="14" t="s">
         <v>26</v>
       </c>
       <c r="C3" s="5"/>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="14" t="s">
         <v>26</v>
       </c>
       <c r="E3" s="5"/>
@@ -875,7 +903,7 @@
         <v>27</v>
       </c>
       <c r="G3" s="9"/>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="7" t="s">
         <v>28</v>
       </c>
       <c r="I3" s="8"/>
@@ -891,15 +919,15 @@
         <v>30</v>
       </c>
       <c r="O3" s="5"/>
-      <c r="P3" s="10" t="s">
+      <c r="P3" s="12" t="s">
         <v>31</v>
       </c>
       <c r="Q3" s="11"/>
-      <c r="R3" s="10" t="s">
+      <c r="R3" s="12" t="s">
         <v>32</v>
       </c>
       <c r="S3" s="11"/>
-      <c r="T3" s="10" t="s">
+      <c r="T3" s="12" t="s">
         <v>33</v>
       </c>
       <c r="U3" s="11"/>
@@ -907,17 +935,17 @@
       <c r="W3" s="11"/>
       <c r="X3" s="11"/>
       <c r="Y3" s="11"/>
-      <c r="Z3" s="10" t="s">
+      <c r="Z3" s="12" t="s">
         <v>34</v>
       </c>
       <c r="AA3" s="11"/>
       <c r="AB3" s="11"/>
       <c r="AC3" s="11"/>
-      <c r="AD3" s="10" t="s">
+      <c r="AD3" s="12" t="s">
         <v>35</v>
       </c>
       <c r="AE3" s="11"/>
-      <c r="AF3" s="10" t="s">
+      <c r="AF3" s="12" t="s">
         <v>36</v>
       </c>
       <c r="AG3" s="11"/>
@@ -929,44 +957,32 @@
       <c r="B4" s="5">
         <v>433879.0</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>38</v>
-      </c>
+      <c r="C4" s="17"/>
       <c r="D4" s="5">
         <v>42412.0</v>
       </c>
-      <c r="E4" s="17" t="s">
-        <v>38</v>
-      </c>
+      <c r="E4" s="17"/>
       <c r="F4" s="5">
         <v>114867.0</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="17"/>
+      <c r="H4" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="18"/>
+      <c r="J4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="K4" s="18" t="s">
-        <v>40</v>
-      </c>
+      <c r="K4" s="18"/>
       <c r="L4" s="5">
         <v>70079.0</v>
       </c>
-      <c r="M4" s="17" t="s">
-        <v>38</v>
-      </c>
+      <c r="M4" s="17"/>
       <c r="N4" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="P4" s="11"/>
       <c r="Q4" s="11"/>
@@ -988,48 +1004,36 @@
       <c r="AG4" s="11"/>
     </row>
     <row r="5">
-      <c r="A5" s="12"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="5">
         <v>433880.0</v>
       </c>
-      <c r="C5" s="17" t="s">
-        <v>38</v>
-      </c>
+      <c r="C5" s="17"/>
       <c r="D5" s="5">
         <v>42412.0</v>
       </c>
-      <c r="E5" s="17" t="s">
-        <v>38</v>
-      </c>
+      <c r="E5" s="17"/>
       <c r="F5" s="5">
         <v>114867.0</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="17"/>
+      <c r="H5" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="I5" s="18"/>
+      <c r="J5" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I5" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="K5" s="18" t="s">
-        <v>40</v>
-      </c>
+      <c r="K5" s="18"/>
       <c r="L5" s="5">
         <v>70012.0</v>
       </c>
-      <c r="M5" s="17" t="s">
-        <v>38</v>
-      </c>
+      <c r="M5" s="17"/>
       <c r="N5" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="P5" s="11"/>
       <c r="Q5" s="11"/>
@@ -1051,48 +1055,36 @@
       <c r="AG5" s="11"/>
     </row>
     <row r="6">
-      <c r="A6" s="12"/>
+      <c r="A6" s="13"/>
       <c r="B6" s="5">
         <v>433881.0</v>
       </c>
-      <c r="C6" s="17" t="s">
-        <v>38</v>
-      </c>
+      <c r="C6" s="17"/>
       <c r="D6" s="5">
         <v>42412.0</v>
       </c>
-      <c r="E6" s="17" t="s">
-        <v>38</v>
-      </c>
+      <c r="E6" s="17"/>
       <c r="F6" s="5">
         <v>114867.0</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="17"/>
+      <c r="H6" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I6" s="18" t="s">
-        <v>40</v>
-      </c>
+      <c r="I6" s="18"/>
       <c r="J6" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="K6" s="18" t="s">
-        <v>40</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="K6" s="18"/>
       <c r="L6" s="5">
         <v>70012.0</v>
       </c>
-      <c r="M6" s="17" t="s">
-        <v>38</v>
-      </c>
+      <c r="M6" s="17"/>
       <c r="N6" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="P6" s="11"/>
       <c r="Q6" s="11"/>
@@ -1116,124 +1108,9 @@
     <row r="7">
       <c r="A7" s="19"/>
     </row>
-    <row r="8">
-      <c r="A8" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" ht="15.75" customHeight="1"/>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="E23" s="20"/>
+    </row>
     <row r="24" ht="15.75" customHeight="1"/>
     <row r="25" ht="15.75" customHeight="1"/>
     <row r="26" ht="15.75" customHeight="1"/>
@@ -2218,21 +2095,21 @@
     <hyperlink r:id="rId1" location="MicrobiologyMicroscopyLabTestEvent" ref="B2"/>
     <hyperlink r:id="rId2" location="SubjectPseudoIdentifier" ref="D2"/>
     <hyperlink r:id="rId3" location="AdministrativeCase" ref="F2"/>
-    <hyperlink r:id="rId4" location="LabTestEvent" ref="H2"/>
-    <hyperlink r:id="rId5" location="LabTestEvent" ref="J2"/>
+    <hyperlink r:id="rId4" location="MicrobiologyMicroscopyLabTestEvent" ref="H2"/>
+    <hyperlink r:id="rId5" location="MicrobiologyMicroscopyLabTestEvent" ref="J2"/>
     <hyperlink r:id="rId6" location="Sample" ref="L2"/>
     <hyperlink r:id="rId7" location="Sample" ref="N2"/>
     <hyperlink r:id="rId8" location="MicroorganismIdentificationLabTestEvent" ref="P2"/>
     <hyperlink r:id="rId9" location="MicroorganismIdentificationLabTestEvent" ref="R2"/>
-    <hyperlink r:id="rId10" location="Isolate" ref="T2"/>
+    <hyperlink r:id="rId10" location="MicrobiologyBiomoleculePresenceResult" ref="T2"/>
     <hyperlink r:id="rId11" location="MicrobiologyMicroscopyResult" ref="Z2"/>
     <hyperlink r:id="rId12" location="MicrobiologyMicroscopyResult" ref="AD2"/>
     <hyperlink r:id="rId13" location="MicrobiologyMicroscopyResult" ref="AF2"/>
     <hyperlink r:id="rId14" location="hasIdentifier" ref="B3"/>
     <hyperlink r:id="rId15" location="hasIdentifier" ref="D3"/>
     <hyperlink r:id="rId16" location="hasIdentifier" ref="F3"/>
-    <hyperlink r:id="rId17" location="hasDateTime" ref="H3"/>
-    <hyperlink r:id="rId18" location="hasDateTime" ref="J3"/>
+    <hyperlink r:id="rId17" location="hasDate" ref="H3"/>
+    <hyperlink r:id="rId18" location="hasTime" ref="J3"/>
     <hyperlink r:id="rId19" location="hasIdentifier" ref="L3"/>
     <hyperlink r:id="rId20" location="hasName" ref="N3"/>
     <hyperlink r:id="rId21" location="hasIdentifier" ref="P3"/>
@@ -2241,40 +2118,636 @@
     <hyperlink r:id="rId24" location="hasDescription" ref="Z3"/>
     <hyperlink r:id="rId25" location="hasValue" ref="AD3"/>
     <hyperlink r:id="rId26" location="hasStringValue" ref="AF3"/>
-    <hyperlink r:id="rId27" location="string" ref="C4"/>
-    <hyperlink r:id="rId28" location="string" ref="E4"/>
-    <hyperlink r:id="rId29" location="string" ref="G4"/>
-    <hyperlink r:id="rId30" location="dateTime" ref="I4"/>
-    <hyperlink r:id="rId31" location="dateTime" ref="K4"/>
-    <hyperlink r:id="rId32" location="string" ref="M4"/>
-    <hyperlink r:id="rId33" ref="O4"/>
-    <hyperlink r:id="rId34" location="string" ref="C5"/>
-    <hyperlink r:id="rId35" location="string" ref="E5"/>
-    <hyperlink r:id="rId36" location="string" ref="G5"/>
-    <hyperlink r:id="rId37" location="dateTime" ref="I5"/>
-    <hyperlink r:id="rId38" location="dateTime" ref="K5"/>
-    <hyperlink r:id="rId39" location="string" ref="M5"/>
-    <hyperlink r:id="rId40" ref="O5"/>
-    <hyperlink r:id="rId41" location="string" ref="C6"/>
-    <hyperlink r:id="rId42" location="string" ref="E6"/>
-    <hyperlink r:id="rId43" location="string" ref="G6"/>
-    <hyperlink r:id="rId44" location="dateTime" ref="I6"/>
-    <hyperlink r:id="rId45" location="dateTime" ref="K6"/>
-    <hyperlink r:id="rId46" location="string" ref="M6"/>
-    <hyperlink r:id="rId47" ref="O6"/>
-    <hyperlink r:id="rId48" location="hasSubjectPseudoIdentifier" ref="C10"/>
-    <hyperlink r:id="rId49" location="hasAdministrativeCase" ref="C11"/>
-    <hyperlink r:id="rId50" location="hasDateTime" ref="C12"/>
-    <hyperlink r:id="rId51" location="hasDateTime" ref="C13"/>
-    <hyperlink r:id="rId52" location="hasAdministrativeCase" ref="C14"/>
-    <hyperlink r:id="rId53" location="hasSubjectPseudoIdentifier" ref="C15"/>
-    <hyperlink r:id="rId54" location="hasSample" ref="C16"/>
-    <hyperlink r:id="rId55" location="hasSample" ref="C17"/>
-    <hyperlink r:id="rId56" location="hasSubjectPseudoIdentifier" ref="C18"/>
+    <hyperlink r:id="rId27" ref="O4"/>
+    <hyperlink r:id="rId28" ref="O5"/>
+    <hyperlink r:id="rId29" ref="O6"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId57"/>
+  <drawing r:id="rId30"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="4" max="4" width="62.71"/>
+  </cols>
+  <sheetData>
+    <row r="2">
+      <c r="A2" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="28">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="28">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="28">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="28">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="28">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="28">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="28">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="28">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="28">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="28">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="28">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="28">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="28">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="28">
+        <v>1.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" location="hasSubjectPseudoIdentifier" ref="D4"/>
+    <hyperlink r:id="rId2" location="hasAdministrativeCase" ref="D5"/>
+    <hyperlink r:id="rId3" location="hasDate" ref="D6"/>
+    <hyperlink r:id="rId4" location="hasTime" ref="D7"/>
+    <hyperlink r:id="rId5" location="hasAdministrativeCase" ref="D8"/>
+    <hyperlink r:id="rId6" location="hasSubjectPseudoIdentifier" ref="D9"/>
+    <hyperlink r:id="rId7" location="hasSample" ref="D10"/>
+    <hyperlink r:id="rId8" location="hasSample" ref="D11"/>
+    <hyperlink r:id="rId9" location="hasSubjectPseudoIdentifier" ref="D12"/>
+    <hyperlink r:id="rId10" location="hasCollectionDateTime" ref="D13"/>
+    <hyperlink r:id="rId11" location="hasDescription" ref="D14"/>
+    <hyperlink r:id="rId12" location="hasComparato" ref="D15"/>
+    <hyperlink r:id="rId13" location="hasValu" ref="D16"/>
+    <hyperlink r:id="rId14" location="hasStringValue" ref="D17"/>
+  </hyperlinks>
+  <drawing r:id="rId15"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="21.71"/>
+    <col customWidth="1" min="2" max="3" width="70.0"/>
+    <col customWidth="1" min="4" max="4" width="62.71"/>
+  </cols>
+  <sheetData>
+    <row r="2">
+      <c r="A2" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="32" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" location="hasSubjectPseudoIdentifier" ref="D4"/>
+    <hyperlink r:id="rId2" location="hasAdministrativeCase" ref="D5"/>
+    <hyperlink r:id="rId3" location="hasDate" ref="D6"/>
+    <hyperlink r:id="rId4" location="hasTime" ref="D7"/>
+    <hyperlink r:id="rId5" location="hasAdministrativeCase" ref="D8"/>
+    <hyperlink r:id="rId6" location="hasSubjectPseudoIdentifier" ref="D9"/>
+    <hyperlink r:id="rId7" location="hasSample" ref="D10"/>
+    <hyperlink r:id="rId8" location="hasSample" ref="D11"/>
+    <hyperlink r:id="rId9" location="hasSubjectPseudoIdentifier" ref="D12"/>
+    <hyperlink r:id="rId10" location="hasCollectionDateTime" ref="D13"/>
+    <hyperlink r:id="rId11" location="hasDescription" ref="D14"/>
+    <hyperlink r:id="rId12" location="Quantity" ref="C15"/>
+    <hyperlink r:id="rId13" location="hasQuantity" ref="D15"/>
+    <hyperlink r:id="rId14" location="Quantity" ref="B16"/>
+    <hyperlink r:id="rId15" location="hasComparato" ref="D16"/>
+    <hyperlink r:id="rId16" location="Quantity" ref="C17"/>
+    <hyperlink r:id="rId17" location="hasQuantity" ref="D17"/>
+    <hyperlink r:id="rId18" location="Quantity" ref="B18"/>
+    <hyperlink r:id="rId19" location="hasValue" ref="D18"/>
+    <hyperlink r:id="rId20" location="MicroorganismIdentificationLabTest" ref="C19"/>
+    <hyperlink r:id="rId21" location="hasLabTest" ref="D19"/>
+    <hyperlink r:id="rId22" location="MicroorganismIdentificationLabTest" ref="B20"/>
+    <hyperlink r:id="rId23" location="MicroorganismIdentificationResult" ref="C20"/>
+    <hyperlink r:id="rId24" location="hasResult" ref="D20"/>
+    <hyperlink r:id="rId25" location="MicroorganismIdentificationResult" ref="B21"/>
+    <hyperlink r:id="rId26" location="hasStringValue" ref="D21"/>
+  </hyperlinks>
+  <drawing r:id="rId27"/>
 </worksheet>
 </file>